--- a/data/Subset2_WithDialogActs/TalkBack.Year2.Levy.Spring.042121.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset2_WithDialogActs/TalkBack.Year2.Levy.Spring.042121.xlsx_with_dialog_acts.xlsx
@@ -559,12 +559,12 @@
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -643,12 +643,12 @@
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -769,12 +769,12 @@
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1105,12 +1105,12 @@
       <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>qy</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Yes-No-Question</t>
         </is>
       </c>
     </row>
@@ -1399,12 +1399,12 @@
       <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -1567,12 +1567,12 @@
       <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1819,12 +1819,12 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1903,12 +1903,12 @@
       <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1945,12 +1945,12 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2113,12 +2113,12 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2281,12 +2281,12 @@
       <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -2323,12 +2323,12 @@
       <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -2407,12 +2407,12 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2579,12 +2579,12 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -2705,12 +2705,12 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -2873,12 +2873,12 @@
       <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3041,12 +3041,12 @@
       <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -3083,12 +3083,12 @@
       <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -3125,12 +3125,12 @@
       <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>qy</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Yes-No-Question</t>
         </is>
       </c>
     </row>
@@ -3167,12 +3167,12 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3377,12 +3377,12 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3461,12 +3461,12 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3713,12 +3713,12 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3797,12 +3797,12 @@
       <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -4133,12 +4133,12 @@
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4301,12 +4301,12 @@
       <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -4511,12 +4511,12 @@
       <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4553,12 +4553,12 @@
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4721,12 +4721,12 @@
       <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5267,12 +5267,12 @@
       <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -5393,12 +5393,12 @@
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5771,12 +5771,12 @@
       <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -6065,12 +6065,12 @@
       <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -6447,12 +6447,12 @@
       <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -6707,12 +6707,12 @@
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -6749,12 +6749,12 @@
       <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -7429,12 +7429,12 @@
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7727,12 +7727,12 @@
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8231,12 +8231,12 @@
       <c r="H185" t="inlineStr"/>
       <c r="I185" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9285,12 +9285,12 @@
       <c r="H210" t="inlineStr"/>
       <c r="I210" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J210" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -9495,12 +9495,12 @@
       <c r="H215" t="inlineStr"/>
       <c r="I215" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J215" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9747,12 +9747,12 @@
       </c>
       <c r="I221" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J221" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9873,12 +9873,12 @@
       </c>
       <c r="I224" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J224" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10041,12 +10041,12 @@
       </c>
       <c r="I228" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J228" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10365,12 +10365,12 @@
       <c r="H236" t="inlineStr"/>
       <c r="I236" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J236" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -11897,12 +11897,12 @@
       <c r="H274" t="inlineStr"/>
       <c r="I274" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J274" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -12017,12 +12017,12 @@
       <c r="H277" t="inlineStr"/>
       <c r="I277" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J277" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -12297,12 +12297,12 @@
       <c r="H284" t="inlineStr"/>
       <c r="I284" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J284" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -12577,12 +12577,12 @@
       <c r="H291" t="inlineStr"/>
       <c r="I291" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J291" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12697,12 +12697,12 @@
       </c>
       <c r="I294" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J294" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12737,12 +12737,12 @@
       <c r="H295" t="inlineStr"/>
       <c r="I295" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J295" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -13537,12 +13537,12 @@
       <c r="H315" t="inlineStr"/>
       <c r="I315" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J315" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -13697,12 +13697,12 @@
       <c r="H319" t="inlineStr"/>
       <c r="I319" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J319" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -13941,12 +13941,12 @@
       </c>
       <c r="I325" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J325" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -14021,12 +14021,12 @@
       </c>
       <c r="I327" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J327" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -14061,12 +14061,12 @@
       <c r="H328" t="inlineStr"/>
       <c r="I328" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J328" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -14141,12 +14141,12 @@
       <c r="H330" t="inlineStr"/>
       <c r="I330" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J330" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -14221,12 +14221,12 @@
       </c>
       <c r="I332" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J332" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -14585,12 +14585,12 @@
       <c r="H341" t="inlineStr"/>
       <c r="I341" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J341" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -14825,12 +14825,12 @@
       <c r="H347" t="inlineStr"/>
       <c r="I347" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J347" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -14945,12 +14945,12 @@
       </c>
       <c r="I350" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J350" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -14985,12 +14985,12 @@
       <c r="H351" t="inlineStr"/>
       <c r="I351" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J351" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -15109,12 +15109,12 @@
       <c r="H354" t="inlineStr"/>
       <c r="I354" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J354" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -15349,12 +15349,12 @@
       </c>
       <c r="I360" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J360" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -15629,12 +15629,12 @@
       </c>
       <c r="I367" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J367" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -16149,12 +16149,12 @@
       </c>
       <c r="I380" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J380" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -17109,12 +17109,12 @@
       <c r="H404" t="inlineStr"/>
       <c r="I404" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J404" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -17229,12 +17229,12 @@
       <c r="H407" t="inlineStr"/>
       <c r="I407" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J407" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -17269,12 +17269,12 @@
       <c r="H408" t="inlineStr"/>
       <c r="I408" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J408" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -17549,12 +17549,12 @@
       <c r="H415" t="inlineStr"/>
       <c r="I415" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J415" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -17629,12 +17629,12 @@
       <c r="H417" t="inlineStr"/>
       <c r="I417" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J417" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -17747,12 +17747,12 @@
       <c r="H420" t="inlineStr"/>
       <c r="I420" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J420" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -18107,12 +18107,12 @@
       <c r="H429" t="inlineStr"/>
       <c r="I429" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J429" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -18227,12 +18227,12 @@
       <c r="H432" t="inlineStr"/>
       <c r="I432" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J432" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -18627,12 +18627,12 @@
       <c r="H442" t="inlineStr"/>
       <c r="I442" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J442" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -18907,12 +18907,12 @@
       <c r="H449" t="inlineStr"/>
       <c r="I449" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J449" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -19227,12 +19227,12 @@
       </c>
       <c r="I457" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J457" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -19307,12 +19307,12 @@
       <c r="H459" t="inlineStr"/>
       <c r="I459" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J459" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -19387,12 +19387,12 @@
       <c r="H461" t="inlineStr"/>
       <c r="I461" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J461" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -19467,12 +19467,12 @@
       <c r="H463" t="inlineStr"/>
       <c r="I463" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J463" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
